--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/44/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/44/FD_Curve.xlsx
@@ -543,10 +543,10 @@
         <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>8.92043</v>
+        <v>8.91957</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.43</v>
+        <v>8919.57</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>9.951280000000001</v>
+        <v>9.86763</v>
       </c>
       <c r="C11" t="n">
-        <v>9951.280000000001</v>
+        <v>9867.629999999999</v>
       </c>
     </row>
     <row r="12">
@@ -565,21 +565,21 @@
         <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>10.8353</v>
+        <v>10.439</v>
       </c>
       <c r="C12" t="n">
-        <v>10835.3</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340698</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6741</v>
+        <v>10.8971</v>
       </c>
       <c r="C13" t="n">
-        <v>11674.1</v>
+        <v>10897.1</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5164</v>
+        <v>10.9944</v>
       </c>
       <c r="C14" t="n">
-        <v>12516.4</v>
+        <v>10994.4</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4072</v>
+        <v>10.9541</v>
       </c>
       <c r="C15" t="n">
-        <v>13407.2</v>
+        <v>10954.1</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0376</v>
+        <v>10.9137</v>
       </c>
       <c r="C16" t="n">
-        <v>14037.6</v>
+        <v>10913.7</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>14.7178</v>
+        <v>10.87</v>
       </c>
       <c r="C17" t="n">
-        <v>14717.8</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>15.1308</v>
+        <v>10.8237</v>
       </c>
       <c r="C18" t="n">
-        <v>15130.8</v>
+        <v>10823.7</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>15.3049</v>
+        <v>10.7732</v>
       </c>
       <c r="C19" t="n">
-        <v>15304.9</v>
+        <v>10773.2</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>15.2448</v>
+        <v>10.7099</v>
       </c>
       <c r="C20" t="n">
-        <v>15244.8</v>
+        <v>10709.9</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1856</v>
+        <v>10.6461</v>
       </c>
       <c r="C21" t="n">
-        <v>15185.6</v>
+        <v>10646.1</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>15.108</v>
+        <v>10.5734</v>
       </c>
       <c r="C22" t="n">
-        <v>15108</v>
+        <v>10573.4</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>15.0188</v>
+        <v>10.4986</v>
       </c>
       <c r="C23" t="n">
-        <v>15018.8</v>
+        <v>10498.6</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>14.9263</v>
+        <v>10.4129</v>
       </c>
       <c r="C24" t="n">
-        <v>14926.3</v>
+        <v>10412.9</v>
       </c>
     </row>
     <row r="25">
@@ -708,21 +708,21 @@
         <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>14.8152</v>
+        <v>10.3281</v>
       </c>
       <c r="C25" t="n">
-        <v>14815.2</v>
+        <v>10328.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743835</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>14.709</v>
+        <v>10.2325</v>
       </c>
       <c r="C26" t="n">
-        <v>14709</v>
+        <v>10232.5</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>14.5825</v>
+        <v>10.1378</v>
       </c>
       <c r="C27" t="n">
-        <v>14582.5</v>
+        <v>10137.8</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>14.4581</v>
+        <v>10.034</v>
       </c>
       <c r="C28" t="n">
-        <v>14458.1</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>14.3212</v>
+        <v>9.927700000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>14321.2</v>
+        <v>9927.700000000001</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>14.1762</v>
+        <v>9.816990000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>14176.2</v>
+        <v>9816.99</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>14.03</v>
+        <v>9.69843</v>
       </c>
       <c r="C31" t="n">
-        <v>14030</v>
+        <v>9698.43</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>13.864</v>
+        <v>9.578790000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>13864</v>
+        <v>9578.790000000001</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>13.7032</v>
+        <v>9.44857</v>
       </c>
       <c r="C33" t="n">
-        <v>13703.2</v>
+        <v>9448.57</v>
       </c>
     </row>
     <row r="34">
@@ -807,758 +807,758 @@
         <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>13.5222</v>
+        <v>9.318770000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>13522.2</v>
+        <v>9318.77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02425</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>13.3423</v>
+        <v>9.179540000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>13342.3</v>
+        <v>9179.540000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05548</v>
       </c>
       <c r="B36" t="n">
-        <v>13.1492</v>
+        <v>7.80243</v>
       </c>
       <c r="C36" t="n">
-        <v>13149.2</v>
+        <v>7802.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08662</v>
       </c>
       <c r="B37" t="n">
-        <v>12.9479</v>
+        <v>7.90398</v>
       </c>
       <c r="C37" t="n">
-        <v>12947.9</v>
+        <v>7903.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11749</v>
       </c>
       <c r="B38" t="n">
-        <v>12.7438</v>
+        <v>8.214350000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>12743.8</v>
+        <v>8214.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14819</v>
+        <v>1.14864</v>
       </c>
       <c r="B39" t="n">
-        <v>15.5194</v>
+        <v>7.94971</v>
       </c>
       <c r="C39" t="n">
-        <v>15519.4</v>
+        <v>7949.71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17891</v>
+        <v>1.17958</v>
       </c>
       <c r="B40" t="n">
-        <v>10.5297</v>
+        <v>8.751209999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>10529.7</v>
+        <v>8751.209999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21016</v>
+        <v>1.21061</v>
       </c>
       <c r="B41" t="n">
-        <v>8.872819999999999</v>
+        <v>8.61792</v>
       </c>
       <c r="C41" t="n">
-        <v>8872.82</v>
+        <v>8617.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24096</v>
+        <v>1.2417</v>
       </c>
       <c r="B42" t="n">
-        <v>12.8688</v>
+        <v>8.23251</v>
       </c>
       <c r="C42" t="n">
-        <v>12868.8</v>
+        <v>8232.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2724</v>
+        <v>1.27233</v>
       </c>
       <c r="B43" t="n">
-        <v>11.7874</v>
+        <v>8.00422</v>
       </c>
       <c r="C43" t="n">
-        <v>11787.4</v>
+        <v>8004.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30333</v>
+        <v>1.30349</v>
       </c>
       <c r="B44" t="n">
-        <v>11.6765</v>
+        <v>7.89057</v>
       </c>
       <c r="C44" t="n">
-        <v>11676.5</v>
+        <v>7890.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33424</v>
+        <v>1.33453</v>
       </c>
       <c r="B45" t="n">
-        <v>11.3422</v>
+        <v>7.82865</v>
       </c>
       <c r="C45" t="n">
-        <v>11342.2</v>
+        <v>7828.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36547</v>
+        <v>1.36555</v>
       </c>
       <c r="B46" t="n">
-        <v>11.388</v>
+        <v>7.659770000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>11388</v>
+        <v>7659.77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39623</v>
+        <v>1.39658</v>
       </c>
       <c r="B47" t="n">
-        <v>11.194</v>
+        <v>7.39989</v>
       </c>
       <c r="C47" t="n">
-        <v>11194</v>
+        <v>7399.89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42739</v>
+        <v>1.42748</v>
       </c>
       <c r="B48" t="n">
-        <v>10.9206</v>
+        <v>7.22604</v>
       </c>
       <c r="C48" t="n">
-        <v>10920.6</v>
+        <v>7226.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45845</v>
+        <v>1.45854</v>
       </c>
       <c r="B49" t="n">
-        <v>10.7037</v>
+        <v>7.05836</v>
       </c>
       <c r="C49" t="n">
-        <v>10703.7</v>
+        <v>7058.36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48945</v>
+        <v>1.48947</v>
       </c>
       <c r="B50" t="n">
-        <v>10.2412</v>
+        <v>6.93547</v>
       </c>
       <c r="C50" t="n">
-        <v>10241.2</v>
+        <v>6935.47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52045</v>
+        <v>1.52063</v>
       </c>
       <c r="B51" t="n">
-        <v>10.023</v>
+        <v>6.78365</v>
       </c>
       <c r="C51" t="n">
-        <v>10023</v>
+        <v>6783.65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55146</v>
+        <v>1.55158</v>
       </c>
       <c r="B52" t="n">
-        <v>9.78013</v>
+        <v>6.60536</v>
       </c>
       <c r="C52" t="n">
-        <v>9780.129999999999</v>
+        <v>6605.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58249</v>
+        <v>1.58237</v>
       </c>
       <c r="B53" t="n">
-        <v>9.6799</v>
+        <v>6.44047</v>
       </c>
       <c r="C53" t="n">
-        <v>9679.9</v>
+        <v>6440.47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61344</v>
+        <v>1.6136</v>
       </c>
       <c r="B54" t="n">
-        <v>9.374379999999999</v>
+        <v>6.347630000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>9374.379999999999</v>
+        <v>6347.63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64445</v>
+        <v>1.64431</v>
       </c>
       <c r="B55" t="n">
-        <v>9.085240000000001</v>
+        <v>6.2418</v>
       </c>
       <c r="C55" t="n">
-        <v>9085.24</v>
+        <v>6241.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67538</v>
+        <v>1.67549</v>
       </c>
       <c r="B56" t="n">
-        <v>8.798410000000001</v>
+        <v>6.11104</v>
       </c>
       <c r="C56" t="n">
-        <v>8798.41</v>
+        <v>6111.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70637</v>
+        <v>1.70647</v>
       </c>
       <c r="B57" t="n">
-        <v>8.67576</v>
+        <v>5.99429</v>
       </c>
       <c r="C57" t="n">
-        <v>8675.76</v>
+        <v>5994.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73734</v>
+        <v>1.73706</v>
       </c>
       <c r="B58" t="n">
-        <v>8.555299999999999</v>
+        <v>5.82003</v>
       </c>
       <c r="C58" t="n">
-        <v>8555.299999999999</v>
+        <v>5820.03</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76844</v>
+        <v>1.76862</v>
       </c>
       <c r="B59" t="n">
-        <v>8.35488</v>
+        <v>5.80207</v>
       </c>
       <c r="C59" t="n">
-        <v>8354.879999999999</v>
+        <v>5802.07</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79929</v>
+        <v>1.79954</v>
       </c>
       <c r="B60" t="n">
-        <v>8.15959</v>
+        <v>5.67611</v>
       </c>
       <c r="C60" t="n">
-        <v>8159.59</v>
+        <v>5676.11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8305</v>
+        <v>1.83001</v>
       </c>
       <c r="B61" t="n">
-        <v>7.975750000000001</v>
+        <v>5.58571</v>
       </c>
       <c r="C61" t="n">
-        <v>7975.75</v>
+        <v>5585.71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86153</v>
+        <v>1.86156</v>
       </c>
       <c r="B62" t="n">
-        <v>7.898770000000001</v>
+        <v>5.4887</v>
       </c>
       <c r="C62" t="n">
-        <v>7898.77</v>
+        <v>5488.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89212</v>
+        <v>1.89251</v>
       </c>
       <c r="B63" t="n">
-        <v>7.79347</v>
+        <v>5.42151</v>
       </c>
       <c r="C63" t="n">
-        <v>7793.47</v>
+        <v>5421.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92354</v>
+        <v>1.92299</v>
       </c>
       <c r="B64" t="n">
-        <v>7.59947</v>
+        <v>5.32124</v>
       </c>
       <c r="C64" t="n">
-        <v>7599.47</v>
+        <v>5321.24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9545</v>
+        <v>1.95436</v>
       </c>
       <c r="B65" t="n">
-        <v>7.47748</v>
+        <v>5.24951</v>
       </c>
       <c r="C65" t="n">
-        <v>7477.48</v>
+        <v>5249.51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98498</v>
+        <v>1.98556</v>
       </c>
       <c r="B66" t="n">
-        <v>7.41649</v>
+        <v>5.17858</v>
       </c>
       <c r="C66" t="n">
-        <v>7416.49</v>
+        <v>5178.58</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01639</v>
+        <v>2.01652</v>
       </c>
       <c r="B67" t="n">
-        <v>7.27493</v>
+        <v>5.10546</v>
       </c>
       <c r="C67" t="n">
-        <v>7274.93</v>
+        <v>5105.46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04746</v>
+        <v>2.0468</v>
       </c>
       <c r="B68" t="n">
-        <v>7.16783</v>
+        <v>5.065930000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>7167.83</v>
+        <v>5065.93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07851</v>
+        <v>2.0782</v>
       </c>
       <c r="B69" t="n">
-        <v>7.076840000000001</v>
+        <v>4.97896</v>
       </c>
       <c r="C69" t="n">
-        <v>7076.84</v>
+        <v>4978.96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10884</v>
+        <v>2.1097</v>
       </c>
       <c r="B70" t="n">
-        <v>7.00363</v>
+        <v>4.92965</v>
       </c>
       <c r="C70" t="n">
-        <v>7003.63</v>
+        <v>4929.65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1403</v>
+        <v>2.14112</v>
       </c>
       <c r="B71" t="n">
-        <v>6.892510000000001</v>
+        <v>4.87157</v>
       </c>
       <c r="C71" t="n">
-        <v>6892.51</v>
+        <v>4871.57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17085</v>
+        <v>2.17067</v>
       </c>
       <c r="B72" t="n">
-        <v>6.85263</v>
+        <v>4.85102</v>
       </c>
       <c r="C72" t="n">
-        <v>6852.63</v>
+        <v>4851.02</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20364</v>
+        <v>2.2017</v>
       </c>
       <c r="B73" t="n">
-        <v>6.83646</v>
+        <v>4.79491</v>
       </c>
       <c r="C73" t="n">
-        <v>6836.46</v>
+        <v>4794.91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23462</v>
+        <v>2.23367</v>
       </c>
       <c r="B74" t="n">
-        <v>6.792920000000001</v>
+        <v>4.72619</v>
       </c>
       <c r="C74" t="n">
-        <v>6792.92</v>
+        <v>4726.19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26534</v>
+        <v>2.26551</v>
       </c>
       <c r="B75" t="n">
-        <v>6.79553</v>
+        <v>4.675020000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>6795.53</v>
+        <v>4675.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29606</v>
+        <v>2.29599</v>
       </c>
       <c r="B76" t="n">
-        <v>6.77826</v>
+        <v>4.67049</v>
       </c>
       <c r="C76" t="n">
-        <v>6778.26</v>
+        <v>4670.49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32678</v>
+        <v>2.32693</v>
       </c>
       <c r="B77" t="n">
-        <v>6.800689999999999</v>
+        <v>4.67868</v>
       </c>
       <c r="C77" t="n">
-        <v>6800.69</v>
+        <v>4678.68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35756</v>
+        <v>2.35822</v>
       </c>
       <c r="B78" t="n">
-        <v>6.72732</v>
+        <v>4.64808</v>
       </c>
       <c r="C78" t="n">
-        <v>6727.32</v>
+        <v>4648.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38882</v>
+        <v>2.38951</v>
       </c>
       <c r="B79" t="n">
-        <v>6.726350000000001</v>
+        <v>4.630560000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>6726.35</v>
+        <v>4630.56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42011</v>
+        <v>2.4208</v>
       </c>
       <c r="B80" t="n">
-        <v>6.67809</v>
+        <v>4.6309</v>
       </c>
       <c r="C80" t="n">
-        <v>6678.09</v>
+        <v>4630.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44866</v>
+        <v>2.45123</v>
       </c>
       <c r="B81" t="n">
-        <v>6.63315</v>
+        <v>4.607880000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>6633.15</v>
+        <v>4607.88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47891</v>
+        <v>2.48641</v>
       </c>
       <c r="B82" t="n">
-        <v>6.58116</v>
+        <v>4.629060000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>6581.16</v>
+        <v>4629.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51408</v>
+        <v>2.52161</v>
       </c>
       <c r="B83" t="n">
-        <v>6.59074</v>
+        <v>4.567220000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>6590.74</v>
+        <v>4567.22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54928</v>
+        <v>2.5548</v>
       </c>
       <c r="B84" t="n">
-        <v>6.49374</v>
+        <v>4.57271</v>
       </c>
       <c r="C84" t="n">
-        <v>6493.74</v>
+        <v>4572.71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58177</v>
+        <v>2.5868</v>
       </c>
       <c r="B85" t="n">
-        <v>6.50249</v>
+        <v>4.55444</v>
       </c>
       <c r="C85" t="n">
-        <v>6502.49</v>
+        <v>4554.44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61377</v>
+        <v>2.6188</v>
       </c>
       <c r="B86" t="n">
-        <v>6.455760000000001</v>
+        <v>4.51489</v>
       </c>
       <c r="C86" t="n">
-        <v>6455.76</v>
+        <v>4514.89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64577</v>
+        <v>2.6508</v>
       </c>
       <c r="B87" t="n">
-        <v>6.38937</v>
+        <v>4.50654</v>
       </c>
       <c r="C87" t="n">
-        <v>6389.37</v>
+        <v>4506.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67777</v>
+        <v>2.6828</v>
       </c>
       <c r="B88" t="n">
-        <v>6.33678</v>
+        <v>4.48274</v>
       </c>
       <c r="C88" t="n">
-        <v>6336.78</v>
+        <v>4482.74</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70977</v>
+        <v>2.7148</v>
       </c>
       <c r="B89" t="n">
-        <v>6.30606</v>
+        <v>4.46261</v>
       </c>
       <c r="C89" t="n">
-        <v>6306.06</v>
+        <v>4462.61</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74177</v>
+        <v>2.7468</v>
       </c>
       <c r="B90" t="n">
-        <v>6.26147</v>
+        <v>4.43426</v>
       </c>
       <c r="C90" t="n">
-        <v>6261.47</v>
+        <v>4434.26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77377</v>
+        <v>2.7788</v>
       </c>
       <c r="B91" t="n">
-        <v>6.216930000000001</v>
+        <v>4.406470000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>6216.93</v>
+        <v>4406.47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80509</v>
+        <v>2.80826</v>
       </c>
       <c r="B92" t="n">
-        <v>6.18064</v>
+        <v>4.38997</v>
       </c>
       <c r="C92" t="n">
-        <v>6180.64</v>
+        <v>4389.97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83426</v>
+        <v>2.83706</v>
       </c>
       <c r="B93" t="n">
-        <v>6.14565</v>
+        <v>4.364640000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>6145.65</v>
+        <v>4364.64</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86306</v>
+        <v>2.86586</v>
       </c>
       <c r="B94" t="n">
-        <v>6.13469</v>
+        <v>4.34337</v>
       </c>
       <c r="C94" t="n">
-        <v>6134.69</v>
+        <v>4343.37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89186</v>
+        <v>2.89466</v>
       </c>
       <c r="B95" t="n">
-        <v>6.10421</v>
+        <v>4.32075</v>
       </c>
       <c r="C95" t="n">
-        <v>6104.21</v>
+        <v>4320.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92066</v>
+        <v>2.92346</v>
       </c>
       <c r="B96" t="n">
-        <v>6.03251</v>
+        <v>4.28942</v>
       </c>
       <c r="C96" t="n">
-        <v>6032.51</v>
+        <v>4289.42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94946</v>
+        <v>2.95226</v>
       </c>
       <c r="B97" t="n">
-        <v>6.01724</v>
+        <v>4.293970000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>6017.24</v>
+        <v>4293.97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97826</v>
+        <v>2.98106</v>
       </c>
       <c r="B98" t="n">
-        <v>5.99793</v>
+        <v>4.2614</v>
       </c>
       <c r="C98" t="n">
-        <v>5997.93</v>
+        <v>4261.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00706</v>
+        <v>3.00986</v>
       </c>
       <c r="B99" t="n">
-        <v>5.94284</v>
+        <v>4.24154</v>
       </c>
       <c r="C99" t="n">
-        <v>5942.84</v>
+        <v>4241.54</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03586</v>
+        <v>3.03866</v>
       </c>
       <c r="B100" t="n">
-        <v>5.93783</v>
+        <v>4.19634</v>
       </c>
       <c r="C100" t="n">
-        <v>5937.83</v>
+        <v>4196.34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06466</v>
+        <v>3.06746</v>
       </c>
       <c r="B101" t="n">
-        <v>5.87779</v>
+        <v>4.22691</v>
       </c>
       <c r="C101" t="n">
-        <v>5877.79</v>
+        <v>4226.91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09346</v>
+        <v>3.09568</v>
       </c>
       <c r="B102" t="n">
-        <v>5.842600000000001</v>
+        <v>4.16493</v>
       </c>
       <c r="C102" t="n">
-        <v>5842.6</v>
+        <v>4164.93</v>
       </c>
     </row>
   </sheetData>
